--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_Gesture.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_Gesture.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="95">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -485,11 +485,11 @@
 };
 validate4
 {
-validate_Text_Exists=VT056-0383
+validate_Text_Exists=VT056-0390
 };
 validate5
 {
-validate_Screenshot=VT056_0383
+validate_Screenshot=VT056_0390
 };
 validate6
 {
@@ -497,92 +497,6 @@
 validate_Result=linearGesture
 };
 validate7
-{
-validate_Result=Gesture detected for 1th time
-validate_Result=linearGesture
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Gesture Index
-};
-validate3
-{
-validate_PageTitle=Linear Gesture
-};
-validate4
-{
-validate_Text_Exists=VT056-0390
-};
-validate5
-{
-validate_Screenshot=VT056_0390
-};
-validate6
-{
-validate_Result=Gesture detected for 1th time
-validate_Result=linearGesture
-};
-validate7
-{
-validate_Result=Gesture detected for 1th time
-validate_Result=linearGesture
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Gesture Index
-};
-validate3
-{
-validate_PageTitle=Linear Gesture
-};
-validate4
-{
-validate_Text_Exists=VT056-0389
-};
-validate5
-{
-validate_Screenshot=VT056_0389
-};
-validate6
-{
-validate_Result=Gesture detected for 1th time
-validate_Result=linearGesture
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Gesture Index
-};
-validate3
-{
-validate_PageTitle=Linear Gesture
-};
-validate4
-{
-validate_Text_Exists=VT056-0391
-};
-validate5
-{
-validate_Screenshot=VT056_0391
-};
-validate6
 {
 validate_Result=Gesture detected for 1th time
 validate_Result=linearGesture
@@ -1071,25 +985,6 @@
 ClickRunTest(runtest_top_xpath);
 DrawGesture(100,500,250,600);
 validate5;</t>
-  </si>
-  <si>
-    <t>wait(4);
-validate1;
-link_Click(gesturepb3_test_link);
-wait(2);
-validate2;
-link_Click(lineargesturepb3_test_link);
-wait(2);
-validate3;
-SelectTestToRun(VT056_0383_string);
-validate4;
-ClickRunTest(runtest_top_xpath);
-TakeScreenshot(VT056_0383);
-validate5;
-DrawGesture(10,520,150,520);
-validate6;
-DrawGesture(10,525,150,525);
-validate7;</t>
   </si>
   <si>
     <t>wait(4);
@@ -1116,55 +1011,6 @@
 link_Click(gesturepb3_test_link);
 wait(2);
 validate2;
-link_Click(lineargesturepb3_test_link);
-wait(2);
-validate3;
-SelectTestToRun(VT056_0389_string);
-validate4;
-ClickRunTest(runtest_top_xpath);
-TakeScreenshot(VT056_0389);
-validate5;
-DrawGesture(10,520,130,520);
-validate6;</t>
-  </si>
-  <si>
-    <t>wait(4);
-validate1;
-link_Click(gesturepb3_test_link);
-wait(2);
-validate2;
-link_Click(lineargesturepb3_test_link);
-wait(2);
-validate3;
-SelectTestToRun(VT056_0391_string);
-validate4;
-ClickRunTest(runtest_top_xpath);
-TakeScreenshot(VT056_0391);
-validate5;
-DrawGesture(10,200,13,200);
-validate6;</t>
-  </si>
-  <si>
-    <t>wait(4);
-validate1;
-link_Click(gesturepb3_test_link);
-wait(2);
-validate2;
-link_Click(holdgesturepb3_test_link);
-wait(2);
-validate3;
-SelectTestToRun(VT056_0438_string);
-validate4;
-ClickRunTest(runtest_top_xpath);
-DrawGesture(hold_default_centre,4000);
-validate5;</t>
-  </si>
-  <si>
-    <t>wait(4);
-validate1;
-link_Click(gesturepb3_test_link);
-wait(2);
-validate2;
 link_Click(holdgesturepb3_test_link);
 wait(2);
 validate3;
@@ -1270,13 +1116,150 @@
 link_Click(gesturepb3_test_link);
 wait(2);
 validate2;
+link_Click(lineargesturepb3_test_link);
+wait(2);
+validate3;
+SelectTestToRun(VT056_0383_string);
+validate4;
+ClickRunTest(runtest_top_xpath);
+validate5;
+DrawGesture(10,520,150,520);
+validate6;
+DrawGesture(10,525,150,525);
+validate7;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Gesture Index
+};
+validate3
+{
+validate_PageTitle=Linear Gesture
+};
+validate4
+{
+validate_Text_Exists=VT056-0383
+};
+validate6
+{
+validate_Result=Gesture detected for 1th time
+validate_Result=linearGesture
+};
+validate7
+{
+validate_Result=Gesture detected for 1th time
+validate_Result=linearGesture
+};</t>
+  </si>
+  <si>
+    <t>wait(4);
+validate1;
+link_Click(gesturepb3_test_link);
+wait(2);
+validate2;
+link_Click(lineargesturepb3_test_link);
+wait(2);
+validate3;
+SelectTestToRun(VT056_0389_string);
+validate4;
+ClickRunTest(runtest_top_xpath);
+DrawGesture(10,520,130,520);
+validate6;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Gesture Index
+};
+validate3
+{
+validate_PageTitle=Linear Gesture
+};
+validate4
+{
+validate_Text_Exists=VT056-0389
+};
+validate6
+{
+validate_Result=Gesture detected for 1th time
+validate_Result=linearGesture
+};</t>
+  </si>
+  <si>
+    <t>wait(4);
+validate1;
+link_Click(gesturepb3_test_link);
+wait(2);
+validate2;
+link_Click(lineargesturepb3_test_link);
+wait(2);
+validate3;
+SelectTestToRun(VT056_0391_string);
+validate4;
+ClickRunTest(runtest_top_xpath);
+DrawGesture(10,200,13,200);
+validate6;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Gesture Index
+};
+validate3
+{
+validate_PageTitle=Linear Gesture
+};
+validate4
+{
+validate_Text_Exists=VT056-0391
+};
+validate6
+{
+validate_Result=Gesture detected for 1th time
+validate_Result=linearGesture
+};</t>
+  </si>
+  <si>
+    <t>wait(4);
+validate1;
+link_Click(gesturepb3_test_link);
+wait(2);
+validate2;
+link_Click(holdgesturepb3_test_link);
+wait(2);
+validate3;
+SelectTestToRun(VT056_0438_string);
+validate4;
+ClickRunTest(runtest_top_xpath);
+DrawGesture(hold_default_centre,4100);
+validate5;</t>
+  </si>
+  <si>
+    <t>wait(4);
+validate1;
+link_Click(gesturepb3_test_link);
+wait(2);
+validate2;
 link_Click(holdgesturepb3_test_link);
 wait(2);
 validate3;
 SelectTestToRun(VT056_1330_string);
 validate4;
 ClickRunTest(runtest_top_xpath);
-DrawGesture(hold_default_centre,1000);
+DrawGesture(hold_default_centre,2000);
 wait(5);
 validate5;</t>
   </si>
@@ -1765,7 +1748,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1857,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>32</v>
@@ -1884,10 +1867,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1911,14 +1894,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
@@ -1940,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>34</v>
@@ -1967,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>35</v>
@@ -1994,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>36</v>
@@ -2021,14 +2002,12 @@
         <v>1</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
@@ -2050,14 +2029,12 @@
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
@@ -2079,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>39</v>
@@ -2106,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>40</v>
@@ -2133,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>41</v>
@@ -2160,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>42</v>
@@ -2187,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>43</v>
@@ -2214,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>44</v>
@@ -2223,7 +2200,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="408.75" thickBot="1">
+    <row r="17" spans="1:11" ht="357.75" thickBot="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2241,10 +2218,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2268,16 +2245,16 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="332.25" thickBot="1">
+    <row r="19" spans="1:11" ht="281.25" thickBot="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2295,16 +2272,16 @@
         <v>1</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="332.25" thickBot="1">
+    <row r="20" spans="1:11" ht="281.25" thickBot="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2322,10 +2299,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -2343,16 +2320,16 @@
         <v>10</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2370,16 +2347,16 @@
         <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2397,16 +2374,16 @@
         <v>10</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -2424,16 +2401,16 @@
         <v>10</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2451,16 +2428,16 @@
         <v>10</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -2478,16 +2455,16 @@
         <v>10</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -2505,16 +2482,16 @@
         <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -2532,16 +2509,16 @@
         <v>10</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -2559,7 +2536,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
@@ -2568,7 +2545,7 @@
         <v>94</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
